--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl4</t>
   </si>
   <si>
     <t>Ccr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.7934951406738</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H2">
-        <v>52.7934951406738</v>
+        <v>1.946619</v>
       </c>
       <c r="I2">
-        <v>0.4393531550203758</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J2">
-        <v>0.4393531550203758</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>47.6720658143342</v>
+        <v>0.01219</v>
       </c>
       <c r="N2">
-        <v>47.6720658143342</v>
+        <v>0.03657</v>
       </c>
       <c r="O2">
-        <v>0.529285553124213</v>
+        <v>0.0001056589573861852</v>
       </c>
       <c r="P2">
-        <v>0.529285553124213</v>
+        <v>0.0001056589573861852</v>
       </c>
       <c r="Q2">
-        <v>2516.774974914934</v>
+        <v>0.007909761869999999</v>
       </c>
       <c r="R2">
-        <v>2516.774974914934</v>
+        <v>0.07118785682999999</v>
       </c>
       <c r="S2">
-        <v>0.2325432776718277</v>
+        <v>5.417990007827127E-07</v>
       </c>
       <c r="T2">
-        <v>0.2325432776718277</v>
+        <v>5.417990007827127E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.7934951406738</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H3">
-        <v>52.7934951406738</v>
+        <v>1.946619</v>
       </c>
       <c r="I3">
-        <v>0.4393531550203758</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J3">
-        <v>0.4393531550203758</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.3966419615353</v>
+        <v>47.85142500000001</v>
       </c>
       <c r="N3">
-        <v>42.3966419615353</v>
+        <v>143.554275</v>
       </c>
       <c r="O3">
-        <v>0.4707144468757869</v>
+        <v>0.4147605967959998</v>
       </c>
       <c r="P3">
-        <v>0.4707144468757869</v>
+        <v>0.4147605967959997</v>
       </c>
       <c r="Q3">
-        <v>2238.266911377201</v>
+        <v>31.049497694025</v>
       </c>
       <c r="R3">
-        <v>2238.266911377201</v>
+        <v>279.445479246225</v>
       </c>
       <c r="S3">
-        <v>0.206809877348548</v>
+        <v>0.002126813310174645</v>
       </c>
       <c r="T3">
-        <v>0.206809877348548</v>
+        <v>0.002126813310174645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>67.3683713155382</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H4">
-        <v>67.3683713155382</v>
+        <v>1.946619</v>
       </c>
       <c r="I4">
-        <v>0.5606468449796242</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J4">
-        <v>0.5606468449796242</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.6720658143342</v>
+        <v>67.50757833333334</v>
       </c>
       <c r="N4">
-        <v>47.6720658143342</v>
+        <v>202.522735</v>
       </c>
       <c r="O4">
-        <v>0.529285553124213</v>
+        <v>0.5851337442466141</v>
       </c>
       <c r="P4">
-        <v>0.529285553124213</v>
+        <v>0.585133744246614</v>
       </c>
       <c r="Q4">
-        <v>3211.589431158841</v>
+        <v>43.803844875885</v>
       </c>
       <c r="R4">
-        <v>3211.589431158841</v>
+        <v>394.234603882965</v>
       </c>
       <c r="S4">
-        <v>0.2967422754523853</v>
+        <v>0.003000454346698992</v>
       </c>
       <c r="T4">
-        <v>0.2967422754523853</v>
+        <v>0.003000454346698992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +711,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>55.419388</v>
+      </c>
+      <c r="H5">
+        <v>166.258164</v>
+      </c>
+      <c r="I5">
+        <v>0.4379594494225732</v>
+      </c>
+      <c r="J5">
+        <v>0.4379594494225733</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01219</v>
+      </c>
+      <c r="N5">
+        <v>0.03657</v>
+      </c>
+      <c r="O5">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="P5">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="Q5">
+        <v>0.6755623397199999</v>
+      </c>
+      <c r="R5">
+        <v>6.080061057479999</v>
+      </c>
+      <c r="S5">
+        <v>4.627433880341678E-05</v>
+      </c>
+      <c r="T5">
+        <v>4.627433880341678E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>55.419388</v>
+      </c>
+      <c r="H6">
+        <v>166.258164</v>
+      </c>
+      <c r="I6">
+        <v>0.4379594494225732</v>
+      </c>
+      <c r="J6">
+        <v>0.4379594494225733</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>47.85142500000001</v>
+      </c>
+      <c r="N6">
+        <v>143.554275</v>
+      </c>
+      <c r="O6">
+        <v>0.4147605967959998</v>
+      </c>
+      <c r="P6">
+        <v>0.4147605967959997</v>
+      </c>
+      <c r="Q6">
+        <v>2651.8966884279</v>
+      </c>
+      <c r="R6">
+        <v>23867.0701958511</v>
+      </c>
+      <c r="S6">
+        <v>0.1816483226149539</v>
+      </c>
+      <c r="T6">
+        <v>0.1816483226149539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>55.419388</v>
+      </c>
+      <c r="H7">
+        <v>166.258164</v>
+      </c>
+      <c r="I7">
+        <v>0.4379594494225732</v>
+      </c>
+      <c r="J7">
+        <v>0.4379594494225733</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>67.50757833333334</v>
+      </c>
+      <c r="N7">
+        <v>202.522735</v>
+      </c>
+      <c r="O7">
+        <v>0.5851337442466141</v>
+      </c>
+      <c r="P7">
+        <v>0.585133744246614</v>
+      </c>
+      <c r="Q7">
+        <v>3741.228676595394</v>
+      </c>
+      <c r="R7">
+        <v>33671.05808935854</v>
+      </c>
+      <c r="S7">
+        <v>0.2562648524688159</v>
+      </c>
+      <c r="T7">
+        <v>0.2562648524688159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>70.435768</v>
+      </c>
+      <c r="H8">
+        <v>211.307304</v>
+      </c>
+      <c r="I8">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J8">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01219</v>
+      </c>
+      <c r="N8">
+        <v>0.03657</v>
+      </c>
+      <c r="O8">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="P8">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="Q8">
+        <v>0.8586120119199999</v>
+      </c>
+      <c r="R8">
+        <v>7.727508107279999</v>
+      </c>
+      <c r="S8">
+        <v>5.881278574044994E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.881278574044993E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>70.435768</v>
+      </c>
+      <c r="H9">
+        <v>211.307304</v>
+      </c>
+      <c r="I9">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J9">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>47.85142500000001</v>
+      </c>
+      <c r="N9">
+        <v>143.554275</v>
+      </c>
+      <c r="O9">
+        <v>0.4147605967959998</v>
+      </c>
+      <c r="P9">
+        <v>0.4147605967959997</v>
+      </c>
+      <c r="Q9">
+        <v>3370.4518697694</v>
+      </c>
+      <c r="R9">
+        <v>30334.0668279246</v>
+      </c>
+      <c r="S9">
+        <v>0.2308675640607228</v>
+      </c>
+      <c r="T9">
+        <v>0.2308675640607227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>70.435768</v>
+      </c>
+      <c r="H10">
+        <v>211.307304</v>
+      </c>
+      <c r="I10">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J10">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>67.50757833333334</v>
+      </c>
+      <c r="N10">
+        <v>202.522735</v>
+      </c>
+      <c r="O10">
+        <v>0.5851337442466141</v>
+      </c>
+      <c r="P10">
+        <v>0.585133744246614</v>
+      </c>
+      <c r="Q10">
+        <v>4754.948125728493</v>
+      </c>
+      <c r="R10">
+        <v>42794.53313155644</v>
+      </c>
+      <c r="S10">
+        <v>0.3257021115976189</v>
+      </c>
+      <c r="T10">
+        <v>0.3257021115976189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.107908</v>
+      </c>
+      <c r="I11">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J11">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01219</v>
+      </c>
+      <c r="N11">
+        <v>0.03657</v>
+      </c>
+      <c r="O11">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="P11">
+        <v>0.0001056589573861852</v>
+      </c>
+      <c r="Q11">
+        <v>0.0004384661733333333</v>
+      </c>
+      <c r="R11">
+        <v>0.00394619556</v>
+      </c>
+      <c r="S11">
+        <v>3.003384153574016E-08</v>
+      </c>
+      <c r="T11">
+        <v>3.003384153574016E-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>67.3683713155382</v>
-      </c>
-      <c r="H5">
-        <v>67.3683713155382</v>
-      </c>
-      <c r="I5">
-        <v>0.5606468449796242</v>
-      </c>
-      <c r="J5">
-        <v>0.5606468449796242</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>42.3966419615353</v>
-      </c>
-      <c r="N5">
-        <v>42.3966419615353</v>
-      </c>
-      <c r="O5">
-        <v>0.4707144468757869</v>
-      </c>
-      <c r="P5">
-        <v>0.4707144468757869</v>
-      </c>
-      <c r="Q5">
-        <v>2856.192718196638</v>
-      </c>
-      <c r="R5">
-        <v>2856.192718196638</v>
-      </c>
-      <c r="S5">
-        <v>0.2639045695272389</v>
-      </c>
-      <c r="T5">
-        <v>0.2639045695272389</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.107908</v>
+      </c>
+      <c r="I12">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J12">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>47.85142500000001</v>
+      </c>
+      <c r="N12">
+        <v>143.554275</v>
+      </c>
+      <c r="O12">
+        <v>0.4147605967959998</v>
+      </c>
+      <c r="P12">
+        <v>0.4147605967959997</v>
+      </c>
+      <c r="Q12">
+        <v>1.7211838563</v>
+      </c>
+      <c r="R12">
+        <v>15.4906547067</v>
+      </c>
+      <c r="S12">
+        <v>0.0001178968101484295</v>
+      </c>
+      <c r="T12">
+        <v>0.0001178968101484295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.107908</v>
+      </c>
+      <c r="I13">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J13">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>67.50757833333334</v>
+      </c>
+      <c r="N13">
+        <v>202.522735</v>
+      </c>
+      <c r="O13">
+        <v>0.5851337442466141</v>
+      </c>
+      <c r="P13">
+        <v>0.585133744246614</v>
+      </c>
+      <c r="Q13">
+        <v>2.428202587597778</v>
+      </c>
+      <c r="R13">
+        <v>21.85382328838</v>
+      </c>
+      <c r="S13">
+        <v>0.0001663258334803035</v>
+      </c>
+      <c r="T13">
+        <v>0.0001663258334803035</v>
       </c>
     </row>
   </sheetData>
